--- a/cat food data.xlsx
+++ b/cat food data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
   <si>
     <t>name</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>price</t>
+  </si>
+  <si>
+    <t>age</t>
   </si>
   <si>
     <t>Wysong Epigen Starch-Free Chicken Formula Grain-Free Dry Dog &amp; Cat Food, 5-lb bag</t>
@@ -522,6 +525,130 @@
 Made with wholesome ingredients like turkey, quail and duck.
 Made without fish or potatoes.
 Provides a balanced meal for cats.</t>
+  </si>
+  <si>
+    <t>Steve's Real Food Freeze-Dried Raw Nuggets - Beef Recipe - Raw Pet Food for Dogs and Cats - 20 oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground beef, beef liver, beef kidney, broccoli, beef bone, carrots, apples, romaine lettuce, goat's milk, coconut oil, sesame seeds, salmon oil, flaxseed, dried kelp, taurine, green lipped mussel, inulin, eggshell
+</t>
+  </si>
+  <si>
+    <t>CONVENIENT RAW FEEDING - The easiest way to feed raw as a meal, irresistible food topper, or high-quality treat.
+COMPLETE NUTRITION - Complete and balanced raw diet for both cats and dogs of all life stages.
+GREAT FOR PICKY EATERS - Extremely palatable and works as a meal or topper.
+PURPOSEFUL INGREDIENTS - No synthetic vitamin packs, no fillers, no artificial colors or preservatives.
+THE ORIGINAL RAW PET FOOD COMPANY: The nation's first commercially available raw pet food diet trusted since 1998.</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Wellness Appetizing Entrées Shredded Adult Wet Cat Food, Natural, Protein-Rich, Grain Free, 2.8 Ounce Pouch, 8 Pack (Chicken Recipe)</t>
+  </si>
+  <si>
+    <t>Chicken, Chicken Broth, Water Sufficient for Processing, Sunflower Oil, Salmon Oil, Pumpkin, Taurine, Calcium Chloride, Monosodium Phosphate, Dried Chicory Root, Salt, Magnesium Sulfate, Choline Chloride, Potassium Chloride, Zinc Proteinate, Vitamin E Supplement, Iron Proteinate, Thiamine Mononitrate, Niacin, Manganese Proteinate, Copper Proteinate, Vitamin A Supplement, Pyridoxine Hydrochloride, Sodium Selenite, d-Calcium Pantothenate, Riboflavin Supplement, Folic Acid, Potassium Iodide, Biotin, Vitamin B12 Supplement, Vitamin D3 Supplement.</t>
+  </si>
+  <si>
+    <t>MOUTHWATERING MEALS CATS CRAVE: Delicious, protein-rich meals featuring real chicken as the #1 ingredient now in 2.8 oz pouches. More bites for more purrs!
+COMPLETE &amp; BALANCED MEAL: Wellness Appetizing Entrées offers complete and balanced nutrition for adult cats and is crafted with real, high-quality, natural* ingredients. *with added vitamins, minerals &amp; taurine
+SUPPORTS HEALTHY HYDRATION: Moisture-rich meals made with delicious broth to support cat’s daily hydration
+VARIETY OF FORMS &amp; FLAVORS: Mix &amp; match between mouth-watering recipes and different forms to support your cat’s daily nutrition
+VETERANIARIAN RECOMMENDED**: Each recipe is crafted to support the 5 Signs of Wellbeing: Sustained Energy, Highly Digestible, Healthy Skin &amp; Coat, Immune Health, and Healthy Teeth &amp; Bones **Survey of US Veterinarians. Data on File.</t>
+  </si>
+  <si>
+    <t>Freeze Dried Raw Cat and Dog Treats, Healthy Limited Ingredient Chicken Cube Weight Control Traing Treats for Small Dogs Cats 5 Ounce</t>
+  </si>
+  <si>
+    <t>Chicken</t>
+  </si>
+  <si>
+    <t>PURE NATURAL LIMITED INGREDIENT. Made by 100% premium chicken meet strict USDA standards fit for human consumption, it's free of any corn and soy.
+NUTRITIOUS &amp; DELICIOUS. The freeze-drying technology ensures that only 95% of the moisture is removed, preserving the complete nutritional content of the chicken.
+MULTIPLE FEEDING METHODS. Freeze dried can be fed directly in training, fed with water, and fed with a regular diet. These three methods can help your pet consume more other nutrients.
+EASY TO CARRY. The lid is easy to close and reserve, it can keep away from moisture with double sealing and easy to take anywhere you want to take your pet to feed.
+SUITABLE FOR ALL AGES DOGS AND CATS. Freeze-dried chicken cube is free of any indigestion and can be easily digested in the intestines and intestines of even elderly dogs and cats.</t>
+  </si>
+  <si>
+    <t>All Life Stages</t>
+  </si>
+  <si>
+    <t>Ketogenic Pet Foods - Keto-Kibble – High Protein, Low Carb, Starch Free, Grain Free Dog &amp; Cat Food - 18 lb</t>
+  </si>
+  <si>
+    <t>Chicken Meal, Organic Chicken, Chicken Fat (preserved with Mixed Tocopherols), Dried Plain Beet Pulp, Meat Protein Isolate, Gelatin, Natural Flavor, Dried Apple Fiber, Dried Natural Meat Broth, Flaxseeds, Coconut Oil, Avocado Oil, Rice Bran Oil, Taurine, Calcium Carbonate, Calcium Propionate (a preservative), Choline Chloride, Fish Oil, Yeast Extract, Citric Acid (a preservative), Inulin, Mixed Tocopherols (a preservative), Rosemary Extract, Yeast Culture, Minerals (Potassium Chloride, Zinc Proteinate, Zinc Sulfate, Ferrous Sulfate, Iron Proteinate, Copper Sulfate, Copper Proteinate, Manganese Sulfate, Manganese Proteinate, Sodium Selenite, Calcium Iodate), Vitamins (Ascorbic Acid [source of Vitamin C], Vitamin E Supplement, Niacin Supplement, Calcium Pantothenate, Vitamin A Supplement, Thiamine Mononitrate, Pyridoxine Hydrochloride, Riboflavin Supplement, Vitamin D3 Supplement, Biotin, Vitamin B12 Supplement, Folic Acid), Dried Aspergillus oryzae Fermentation Extract, Dried Enterococcus faecium Fermentation Product, Dried Lactobacillus casei Fermentation Product, Dried Lactobacillus acidophilus Fermentation Product, Dried Bacillus subtilis Fermentation Extract, Dried Lactobacillus plantarum Fermentation Product, Dried Lactobacillus lactis Fermentation Product.</t>
+  </si>
+  <si>
+    <t>Protein &amp; fat based – Our pets are carnivores by nature. Kato-kibble is formulated to feed the carnivorous creature within! With more than twice the protein Content (60+%) of most pet Foods, keta-kibble provides a protein, fat, and micronutrient rich meal designed to encourage proper metabolic balance. Ketogenic Pet Foods are the answer to carbohydrate-based pet Foods
+Starch free &amp; Grain Free – a true alternative to carbohydrate-based pet Foods – both conventional pet Foods and those that claim to be "Grain free, " but still have high starch Content. Kato-kibble is free of inflammatory, starch fillers which can spike Insulin, disrupt metabolism, and ultimately compromise your pet's wellbeing
+Formulated for both cats &amp; Dogs – keta-kibble is a meat-based, starch free pet Food Designed for the health of dogs &amp; CATS. Wild canines and felines consume similarly carnivorous diets. Properly designed pet Foods like keta-kibble are equally suitable for dogs and cats
+Complete meal or supplement – introduce as a supplement (add-on) and protein booster to your pet's current Food, or use as a primary meal. (Be sure to introduce keta-kibble gradually, and follow the feeding guidelines. )
+High standards - manufactured in the USA. Formulated to far exceed the minimum nutritional levels established by the AAFCO dog Food and cat Food nutrient Profiles for maintenance.</t>
+  </si>
+  <si>
+    <t>The Honest Kitchen Human Grade Whole Food Clusters Grain Free Chicken Dry Cat Food, 10 lb Bag</t>
+  </si>
+  <si>
+    <t>Chicken, peas, eggs, chicken liver, lentils, potatoes, tricalcium phosphate, natural chicken flavor, flaxseed, salmon oil, sodium chloride, vitamins [niacin supplement, vitamin e supplement, vitamin a supplement, folic acid, thiamine mononitrate (vitamin b1), calcium pantothenate (vitamin b5), biotin, pyridoxine hydrochloride (vitamin b6), vitamin d3 supplement, riboflavin (vitamin b2), vitamin b12 supplement], fenugreek seed, taurine, choline chloride, dried organic kelp, minerals [zinc amino acid chelate, iron amino acid chelate, copper amino acid chelate, manganese amino acid chelate, sodium selenite], pumpkin, blueberries, cranberries, carrots, organic barley grass, yucca schidigera extract, potassium chloride, mixed tocopherols, rosemary extract, turmeric, l-carnitine, dried bacillus coagulans fermentation product* *Contains a source of live, naturally occurring microorganisms.</t>
+  </si>
+  <si>
+    <t>HUMAN GRADE: As the first human grade dry cat food, our recipe features cage free chicken, and beneficial probiotics, providing a complete and balanced meal that supports your cat's overall wellness
+GOURMET INGREDIENTS YOU CAN TRUST: Crafted from a 100% human grade recipe with no fillers, our Whole Food Clusters dry cat food ensures your pup enjoys a nutritious meal made in a facility that meets stringent safety standards
+CONVENIENT AND EASY TO DIGEST: Dry cat food clusters are crafted with human grade muscle meat &amp; liver, oats, beneficial fats &amp; live probiotics, making them not only a delicious choice but also easy on your cat's digestive system, perfect for adult cats.
+NO COMPROMISE ON QUALITY: We prioritize your pet's health by saying no to feed grade ingredients, meat meals, and artificial preservatives. Our human grade chicken cat food is crafted to provide only the best nutrition without compromise
+SUITABLE FOR KITTENS &amp; ADULT CATS: Complete &amp; balanced nutrition for adult cats and kittens of all breeds and sizes, as well as adult mothers (gestation/lactation).</t>
+  </si>
+  <si>
+    <t>Nutri Bites Freeze Dried Chicken Dog &amp; Cat Treats | Healthy Pet Training Treats or Food Topper | All Natural, 1 Single Animal Protein, High Protein | Premium Bulk Value Pack, 15 oz</t>
+  </si>
+  <si>
+    <t>See Label</t>
+  </si>
+  <si>
+    <t>100% NATURAL – Our freeze-dried dog and cat treats are all-natural and made with only 1 single animal protein, real chicken. We provide a healthy treat you and your furry friend can trust that is grain free with no additives, preservatives, or fillers.
+DELICIOUS TASTE FOR TRAINING OR MEAL TOPPING – Elevate your pet's training sessions or meals with our irresistible Freeze-Dried Treats. Bursting with delicious flavor, these treats, made from premium chicken, are a perfect topping to enhance any meal. Their savory taste ensures your puppy or cat will be motivated and eager to learn with every rewarding bite.
+SUPPORT FOR YOUR PET’S HEALTH – Our high-protein, easy-to-digest freeze-dried chicken snacks are not just tasty – they're also packed with vital benefits. Nutri Bites are packed with essential fatty acids, vitamins and minerals, including Omega-6, to support your pet’s joints, teeth, bones, organs and immune system, along with protecting hair and skin.
+LESS DUST &amp; CRUMBS – Our premium standard freeze-drying process ensures more meat and less unnecessary dust and crumbs. Give your pet the pure joy of wholesome, meat-packed goodness with every treat.
+15 OZ BULK VALUE POUCH – Offering the best bulk value, each large resealable pouch is packed with 425 grams of premium treats that ensure your furry friend stays happy and healthy without breaking the bank. Treat your pet to quality nutrition at an affordable price with every pouch. Try all pet treats including; freeze-dried beef liver, salmon, and chicken!</t>
+  </si>
+  <si>
+    <t>Dr. Marty Nature's Feast Essential Wellness Poultry Dry Cat Food 12 oz</t>
+  </si>
+  <si>
+    <t>Premium Freeze-Dried Raw Nutrition: Our cat food formula is 100% natural, packed with feline-friendly fruits, veggies, and mixed proteins to support energy, good digestion, and smooth skin with a shinier coat
+High Protein, Low Carb: With 37% crude protein and only 3% crude fiber, this cat food is perfect for maintaining a healthy weight and supporting strong muscles
+Omega-3 Rich: Contains 5% omega-3 fatty acids to support your cat's heart health, brain function, and a lustrous coat
+Suitable for All Life Stages: Formulated to meet the nutritional needs of cats of all ages, from kittens to seniors</t>
+  </si>
+  <si>
+    <t>Wysong Epigen Canine/Feline Dry Diet - Dog/Cat Food- 5 Pound Bag (WDCFE5)</t>
+  </si>
+  <si>
+    <t>Organic Chicken, Chicken Meal, Turkey Meal, Potato Protein, Meat Protein Isolate, Chicken Fat (preserved with Mixed Tocopherols), Gelatin, Dried Plain Beet Pulp, Natural Flavor, Coconut Oil, Chia Seeds, Salt, Taurine, Calcium Carbonate, Dried Tomato Pomace, Calcium Propionate (a preservative), Choline Chloride, Dried Kelp, Organic Barley Grass Powder, Dried Blueberry Powder, Dried Yogurt, Apple Fiber, Dried Kale, Dried Spinach, Dried Carrots, Fish Oil, Yeast Extract, Citric Acid (a preservative), Inulin, Mixed Tocopherols (a preservative), Rosemary Extract, Yeast Culture, Minerals (Potassium Chloride, Zinc Proteinate, Zinc Sulfate, Ferrous Sulfate, Iron Proteinate, Copper Sulfate, Copper Proteinate, Manganese Sulfate, Manganese Proteinate, Sodium Selenite, Calcium Iodate), Vitamins (Ascorbic Acid [source of Vitamin C], Vitamin E Supplement, Niacin Supplement, Calcium Pantothenate, Vitamin A Supplement, Thiamine Mononitrate, Pyridoxine Hydrochloride, Riboflavin Supplement, Vitamin D3 Supplement, Biotin, Vitamin B12 Supplement, Folic Acid), Dried Aspergillus oryzae Fermentation Extract, Dried Enterococcus faecium Fermentation Product, Dried Lactobacillus casei Fermentation Product, Dried Lactobacillus acidophilus Fermentation Product, Dried Bacillus subtilis Fermentation Extract, Dried Lactobacillus plantarum Fermentation Product, Dried Lactobacillus lactis Fermentation Product, Pepper.</t>
+  </si>
+  <si>
+    <t>The first extruded dry diet kibble pet food that is Starch Free Epigen does what "Grain Free" dog food and cat foods only pretend to do
+More closely resembles the food your pet is designed to eat Has the natural flavor and taste that pets truly desire
+Is replete with all the critical food elements Wysong was first to put into pet foods probiotics prebiotics enzymes phytonutrients nutraceuticals natural form antioxidants vitamins and minerals
+Contains unprecedented and unequalled meat content including organic Rich in omega 3's and other essential fatty acids
+Very nutrient dense Introduce slowly according to the feeding guidelines Can be used as a protein booster and meal supplement
+Manufactured by Wysong in accordance with strict quality control protocols
+Wysong has been a leader in pet nutrition since 1979</t>
+  </si>
+  <si>
+    <t>Stella &amp; Chewy's – Stella’s Solutions Digestive Boost – Cage-Free Chicken Dinner Mixer – Freeze-Dried Raw, Protein Rich, Grain Free Cat Food – 7.5 oz Bag</t>
+  </si>
+  <si>
+    <t>Chicken with bone, chicken liver, pumpkin, chicken heart, chicken gizzard, salmon oil, salt, choline chloride, dandelion, tocopherols (preservative), papaya, taurine, pineapple, dried chicory root (source of inulin), L-Carnitine, dried Pediococcus acidilactici fermentation product, dried Lactobacillus acidophilus fermentation product, dried Bifidobacterium longum fermentation product, dried Bacillus coagulans fermentation product, potassium chloride, sodium phosphate, dried kelp, zinc proteinate, iron proteinate, vitamin A supplement, vitamin E supplement, niacin supplement, copper proteinate, riboflavin supplement, sodium selenite, d-calcium pantothenate, biotin, manganese proteinate, thiamine mononitrate, pyridoxine hydrochloride, vitamin D3 supplement, folic acid, vitamin B12 supplement.</t>
+  </si>
+  <si>
+    <t>Ultimate Digestive Support: This recipe is chock full of ingredients to support your kitty’s digestion and intestinal health, including L-carnitine, a chemical that improves metabolism and other body processes by helping turn fat into energy
+All the Fiber Your Cat Needs: Natural sources of soluble fiber, such as pumpkin and pineapple stems, help your cat digest food and treats effectively
+Full of Probiotics, Prebiotics &amp; Digestive Enzymes: We’ve added probiotics and prebiotics to aid in intestinal health and optimal digestion; papaya, a natural source of papain, also has enzymes that aid in digestion
+Picky Eater Approved: Even the pickiest eaters go wild for this topper; these special and unique recipes add a boost of nutrition, raw power, and taste to your cat’s bowl!
+A Healthy &amp; Tasty Meal Mixer, Supplement or Snack: Made with cage-free chicken, this all-natural, freeze-dried raw recipe is a convenient way to add the power, nutrition and taste of raw to your cat’s diet
+Supports Whole Body Health: Fortified with vitamins and minerals, our Stella Solution’s formulas help improve your cat’s entire well-being, with Omega fatty acids for skin and coat support, antioxidants for immune support, and taurine for heart health
+Whole Prey Ingredients: Feeding your pet a diet similar to what their ancestors enjoyed in the wild helps your pet thrive; a raw diet helps support healthy digestion, strong teeth and gums, vibrant skin and coat, and stamina and vitality</t>
   </si>
 </sst>
 </file>
@@ -823,38 +950,41 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" hidden="1">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" hidden="1">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" hidden="1">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>46.58</v>
@@ -862,13 +992,13 @@
     </row>
     <row r="5" hidden="1">
       <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="3">
         <v>12.99</v>
@@ -876,13 +1006,13 @@
     </row>
     <row r="6" hidden="1">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4">
         <v>62.99</v>
@@ -890,24 +1020,24 @@
     </row>
     <row r="7" hidden="1">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" hidden="1">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1">
         <v>24.99</v>
@@ -915,24 +1045,24 @@
     </row>
     <row r="9" hidden="1">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" hidden="1">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>35.74</v>
@@ -940,35 +1070,35 @@
     </row>
     <row r="11" hidden="1">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" hidden="1">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" hidden="1">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="1">
         <v>37.67</v>
@@ -976,13 +1106,13 @@
     </row>
     <row r="14" hidden="1">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="1">
         <v>27.81</v>
@@ -990,24 +1120,24 @@
     </row>
     <row r="15" hidden="1">
       <c r="A15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" hidden="1">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D16" s="1">
         <v>17.86</v>
@@ -1015,13 +1145,13 @@
     </row>
     <row r="17" hidden="1">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="1">
         <v>42.09</v>
@@ -1029,13 +1159,13 @@
     </row>
     <row r="18" hidden="1">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D18" s="1">
         <v>36.39</v>
@@ -1043,35 +1173,35 @@
     </row>
     <row r="19" hidden="1">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" hidden="1">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" hidden="1">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1">
         <v>21.44</v>
@@ -1079,13 +1209,13 @@
     </row>
     <row r="22" hidden="1">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1">
         <v>18.99</v>
@@ -1093,13 +1223,13 @@
     </row>
     <row r="23" hidden="1">
       <c r="A23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D23" s="1">
         <v>11.43</v>
@@ -1107,13 +1237,13 @@
     </row>
     <row r="24" hidden="1">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1">
         <v>30.54</v>
@@ -1121,220 +1251,367 @@
     </row>
     <row r="25" hidden="1">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1">
         <v>14.29</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="1">
         <v>18.41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1">
         <v>23.26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D28" s="1">
         <v>13.22</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1">
         <v>17.08</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D30" s="1">
         <v>34.16</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31" s="1">
         <v>11.04</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D32" s="1">
         <v>12.4</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D33" s="1">
         <v>14.74</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" hidden="1">
       <c r="A35" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D35" s="1">
         <v>66.16</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="1">
         <v>70.99</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D37" s="1">
         <v>27.29</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D39" s="1">
         <v>51.84</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="1">
         <v>42.16</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="1">
+        <v>41.67</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="1">
+        <v>15.92</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1">
+        <v>15.09</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1">
+        <v>92.68</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45" s="1">
+        <v>69.99</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="1">
+        <v>22.99</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="1">
+        <v>19.09</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1">
+        <v>22.99</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/cat food data.xlsx
+++ b/cat food data.xlsx
@@ -5,13 +5,15 @@
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$A$997</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="186">
   <si>
     <t>name</t>
   </si>
@@ -55,10 +57,11 @@
 Crafted in the USA with sustainably-sourced ingredients and contains no grain, gluten, corn, wheat or soy.</t>
   </si>
   <si>
-    <t>ZIWI Peak Air-Dried Venison Recipe Cat Food, 14-oz bag</t>
-  </si>
-  <si>
-    <t>Venison, Venison Tripe, Venison Heart, Venison Lung, Venison Liver, Venison Kidney, New Zealand Green Mussel, Venison Bone, Lecithin, Inulin (from Chicory Root), Dried Apple Pomace, Venison Cartilage, Minerals (Dipotassium Phosphate, Magnesium Sulfate, Zinc Amino Acid Complex, Iron Amino Acid Complex, Copper Amino Acid Complex, Manganese Amino Acid Complex, Sodium Selenite), Dried Organic Kelp, Salt, DL-Methionine, Preservative (Citric Acid, Mixed Tocopherols), Vitamins (Choline Chloride, Thiamine Mononitrate, Pyridoxine Hydrochloride, Folic Acid, Vitamin D3 Supplement), Taurine.</t>
+    <t>Dr. Elsey's cleanprotein Chicken Kibble Cat Dry Food, 2.0-lb bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken, Hydrolyzed Pork, Pork Plasma, Gelatin, Chicken Fat (Preserved with Mixed Tocopherols), Ground Flaxseed, Natural Flavor, Calcium Carbonate, Salmon Oil, Potassium Chloride, Choline Chloride, Fructooligosaccharides, Vitamins (Niacin, Vitamin A Supplement, Thiamine Mononitrate, d-Calcium Pantothenate, Folic Acid, Pyridoxine Hydrochloride, Riboflavin, Vitamin D Supplement, Biotin, Vitamin B12), Minerals (Zinc Proteinate, Zinc Sulfate, Iron Proteinate, Ferrous Sulfate, Copper Proteinate, Copper Sulfate, Manganese Proteinate, Manganese Sulfate, CalciumIodate, Sodium Selenite), Taurine, Magnesium Oxide, Mixed Tocopherols (Preservative), Salt, Vitamin E Supplement, Rosemary Extract.
+</t>
   </si>
   <si>
     <t>Complete and balanced nutrition for all cats from kitten to adult.
@@ -66,13 +69,6 @@
 Grain-free, low-carb formula helps your cat maintain a healthy weight.
 Animal-based protein helps to satisfy your cat’s hunger.
 Promotes a healthy, active lifestyle.</t>
-  </si>
-  <si>
-    <t>Dr. Elsey's cleanprotein Chicken Kibble Cat Dry Food, 2.0-lb bag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chicken, Hydrolyzed Pork, Pork Plasma, Gelatin, Chicken Fat (Preserved with Mixed Tocopherols), Ground Flaxseed, Natural Flavor, Calcium Carbonate, Salmon Oil, Potassium Chloride, Choline Chloride, Fructooligosaccharides, Vitamins (Niacin, Vitamin A Supplement, Thiamine Mononitrate, d-Calcium Pantothenate, Folic Acid, Pyridoxine Hydrochloride, Riboflavin, Vitamin D Supplement, Biotin, Vitamin B12), Minerals (Zinc Proteinate, Zinc Sulfate, Iron Proteinate, Ferrous Sulfate, Copper Proteinate, Copper Sulfate, Manganese Proteinate, Manganese Sulfate, CalciumIodate, Sodium Selenite), Taurine, Magnesium Oxide, Mixed Tocopherols (Preservative), Salt, Vitamin E Supplement, Rosemary Extract.
-</t>
   </si>
   <si>
     <t>Go! Solutions Carnivore Grain-Free Chicken, Turkey + Duck Recipe Dry Cat Food, 16-lb bag</t>
@@ -133,18 +129,21 @@
 Using the calculations provided by the AAFCO, Fromm Beef &amp; Venison Pâté has approximately 87 calories per 100g (25 calories/ounce), which is an average amount of calories compared to the average of the other wet cat foods in the CatFoodDB.</t>
   </si>
   <si>
-    <t>The Honest Kitchen Human Grade Dehydrated Grain-Free Chicken Cat Food, 4-lb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dehydrated Chicken, Dehydrated Sweet Potatoes, Dehydrated Potatoes, Flaxseed, Dehydrated Eggs, Dehydrated Chicken Bone Broth, Dehydrated Spinach, Dehydrated Pumpkin, Tricalcium Phosphate, Dried Cranberries, Dried Blueberries, Minerals [Potassium Chloride, Choline Chloride, Potassium Iodide, Iron Amino Acid Chelate, Zinc Amino Acid Chelate, Copper Amino Acid Chelate, Manganese Amino Acid Chelate, Sodium Selenite], Taurine, Vitamins [Vitamin E Supplement, Pantothenic Acid (Vitamin B5), Thiamine Mononitrate (Vitamin B1), Riboflavin (Vitamin B2), Vitamin D3 Supplement, Vitamin B12 Supplement, Pyridoxine (Vitamin B6)], Dried Organic Barley Grass, Dried Organic Kelp, Rosemary Extract, Turmeric, Dried Bacillus Coagulans Fermentation Product*
+    <t>The Honest Kitchen Human Grade Whole Food Clusters Grain Free Turkey &amp; Chicken Dry Cat Food, 4 lb Bag</t>
+  </si>
+  <si>
+    <t>Turkey, chicken, peas, potatoes, eggs, lentils, turkey liver, turkey bone broth, tricalcium phosphate, natural turkey flavor, flaxseed, sodium chloride, salmon oil, potassium chloride, vitamins [niacin supplement, vitamin E supplement, vitamin A supplement, folic acid, thiamine mononitrate (vitamin B1), calcium pantothenate (vitamin B5), biotin, pyridoxine hydrochloride (vitamin B6), vitamin D3 supplement, riboflavin (vitamin B2), vitamin B12 supplement], fenugreek seed, taurine, dried organic kelp, choline chloride, minerals [zinc amino acid chelate, iron amino acid chelate, copper amino acid chelate, manganese amino acid chelate, sodium selenite], pumpkin, blueberries, cranberries, carrots, organic barley grass, yucca schidigera extract, mixed tocopherols, rosemary extract, turmeric, L-carnitine, dried bacillus coagulans fermentation product* *Contains a source of live, naturally occurring microorganisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMAN GRADE: As the first human grade dry cat food, our recipe features cage free chicken and turkey, and beneficial probiotics, providing a complete and balanced meal that supports your cat's overall wellness
+GOURMET INGREDIENTS YOU CAN TRUST: Crafted from a 100% human grade recipe with no fillers, our Whole Food Clusters dry cat food ensures your pup enjoys a nutritious meal made in a facility that meets stringent safety standards
+CONVENIENT AND EASY TO DIGEST: Dry cat food clusters are crafted with human grade muscle meat &amp; liver, oats, beneficial fats &amp; live probiotics, making them not only a delicious choice but also easy on your cat's digestive system, perfect for adult cats.
+NO COMPROMISE ON QUALITY: We prioritize your pet's health by saying no to feed grade ingredients, meat meals, and artificial preservatives. Our human grade chicken and turkey cat food is crafted to provide only the best nutrition without compromise
+SUITABLE FOR KITTENS &amp; ADULT CATS: Complete &amp; balanced nutrition for adult cats and kittens of all breeds and sizes, as well as adult mothers (gestation/lactation).
 </t>
   </si>
   <si>
-    <t>Made in the USA with ingredients you’d recognize from your own kitchen.
-Just add warm water for a wholesome and delicious meal that rehydrates to 4 times its weight.
-This recipe is packed with cage-free chicken and is free of grain and feed-grade fillers, and the whole food ingredients are gently dehydrated for maximum taste, nutrient retention, and easy digestion.
-This recipe contains no artificial preservatives, feed grade by-products, fillers, GMO ingredients, corn, wheat, or soy.
-This recipe is made with human grade ingredients and produced in a human food facility, plus it can be served alone as a complete easy homemade meal or used as a topper for dry food (sold separately).</t>
+    <t>All Life Stages</t>
   </si>
   <si>
     <t>Catit Gold Fern - Air Dried Chicken</t>
@@ -568,9 +567,6 @@
 MULTIPLE FEEDING METHODS. Freeze dried can be fed directly in training, fed with water, and fed with a regular diet. These three methods can help your pet consume more other nutrients.
 EASY TO CARRY. The lid is easy to close and reserve, it can keep away from moisture with double sealing and easy to take anywhere you want to take your pet to feed.
 SUITABLE FOR ALL AGES DOGS AND CATS. Freeze-dried chicken cube is free of any indigestion and can be easily digested in the intestines and intestines of even elderly dogs and cats.</t>
-  </si>
-  <si>
-    <t>All Life Stages</t>
   </si>
   <si>
     <t>Ketogenic Pet Foods - Keto-Kibble – High Protein, Low Carb, Starch Free, Grain Free Dog &amp; Cat Food - 18 lb</t>
@@ -649,6 +645,168 @@
 A Healthy &amp; Tasty Meal Mixer, Supplement or Snack: Made with cage-free chicken, this all-natural, freeze-dried raw recipe is a convenient way to add the power, nutrition and taste of raw to your cat’s diet
 Supports Whole Body Health: Fortified with vitamins and minerals, our Stella Solution’s formulas help improve your cat’s entire well-being, with Omega fatty acids for skin and coat support, antioxidants for immune support, and taurine for heart health
 Whole Prey Ingredients: Feeding your pet a diet similar to what their ancestors enjoyed in the wild helps your pet thrive; a raw diet helps support healthy digestion, strong teeth and gums, vibrant skin and coat, and stamina and vitality</t>
+  </si>
+  <si>
+    <t>Instinct Original Real Chicken Recipe Grain-Free Pate Kitten Wet Cat Food, 5.5-oz can, case of 12</t>
+  </si>
+  <si>
+    <t>Chicken, Chicken Broth, Beef Liver, Salmon, Egg Product, Montmorillonite Clay, Taurine, Dried Kelp, Potassium Chloride, Ground Flaxseed, Minerals (Iron Proteinate, Zinc Proteinate, Copper Proteinate, Manganese Proteinate, Sodium Selenite, Potassium Iodide), Choline Chloride, Salt, Vitamins (Thiamine Mononitrate, Vitamin E Supplement, Niacin Supplement, d-Calcium Pantothenate, Pyridoxine Hydrochloride, Riboflavin Supplement, Vitamin A Supplement, Biotin, Vitamin D3 Supplement, Vitamin B12 Supplement, Folic Acid), Menhaden Fish Oil (preserved With Mixed Tocopherols), Magnesium Sulfate, L-Ascorbyl-2- Polyphosphate, Artichokes, Cranberries, Pumpkin, Tomato, Blueberries, Broccoli, Cabbage, Kale, Parsley.</t>
+  </si>
+  <si>
+    <t>High animal protein provides healthy energy needed for growth and play.
+Made with real chicken, beef liver, and salmon—a balanced mix of poultry, fish and meat that provides healthy exposure to proteins.
+Made without gums, grain, potato, corn, wheat, soy, by-product meal, artificial colors or preservatives.
+Natural DHA helps foster healthy brain and eye development .
+Made in the USA with the finest ingredients from around the world.</t>
+  </si>
+  <si>
+    <t>Kitten</t>
+  </si>
+  <si>
+    <t>Farmina Ocean Feline Cod, Shrimp &amp; Pumpkin Kitten</t>
+  </si>
+  <si>
+    <t>Cod, Herring, Salmon, Sweet Potatoes, Shrimp, Pumpkin, Herring Oil, Fructooligosaccharide, Calcium Carbonate, Potassium Chloride, Vitamin A Supplement, Vitamin D3 Supplement, Vitamin E Supplement, Menadione Sodium Bisulfite Complex, Choline Chloride, Zinc Methionine Hydroxy Analogue Chelate, Manganese Methionine Hydroxy Analogue Chelate, Ferrous Glycine Complex, Copper Methionine Hydroxy Analogue Chelate, DL-methionine, Taurine.</t>
+  </si>
+  <si>
+    <t>Farmina Ocean Feline Cod, Shrimp &amp; Pumpkin Kitten's most plentiful ingredient listed is cod, which is considered a quality protein source. It also contains herring, salmon and shrimp as additional quality protein sources.
+Additionally, it's worth noting that this product does not list either by-products nor bulk-adding fillers within its top ingredients. By-products are considered inferior, lesser quality ingredients. Common fillers typically used to add bulk to the product are not required in your cat's diet. Together, their combined absence may be indicative of a higher quality product.</t>
+  </si>
+  <si>
+    <t>Tiki Cat Baby Mousse with Salmon &amp; Chicken Liver in Broth Grain-Free Wet Kitten Food, 2.4-oz pouch, pack of 12</t>
+  </si>
+  <si>
+    <t>Salmon Broth, Salmon, Chicken, Chicken Liver, Dried Egg, Sunflower Seed Oil, Tricalcium Phosphate, Tuna Oil, Xanthan Gum, Inulin, Potassium Chloride, Salt, Choline Chloride, Magnesium Sulfate, Taurine, Thiamine Mononitrate (Vitamin B1), Ferrous Sulfate, Vitamin E Supplement, Niacin (Vitamin B3), Zinc Oxide, Vitamin A Supplement, Biotin, Vitamin B12 Supplement, Copper Amino Acid Chelate, Manganous Oxide, Calcium Pantothenate, Riboflavin Supplement (Vitamin B2), Sodium Selenite, Pyridoxine Hydrochloride (Vitamin B6), Menadione Sodium Bisulfite Complex (Source Of Vitamin K Activity), Folic Acid, Potassium Iodide, Vitamin D3 Supplement.</t>
+  </si>
+  <si>
+    <t>Created using non-GMO ingredients.
+Crafted into a silky smooth mousse that’s full of flavor.
+Does not contain any animal by-products, artificial colors or flavors.
+Formulated to help maintain muscle mass with high-quality protein.
+Developed to ease the transition to solid food with a gentle source of fiber.</t>
+  </si>
+  <si>
+    <t>Merrick Purrfect Bistro Grain Free Healthy Kitten Recipe</t>
+  </si>
+  <si>
+    <t>Crafted in the USA.
+This high-protein dry kitten food features real deboned chicken as the #1 ingredient to help your furbaby develop lean muscle mass.
+Premium, grain-free cat food is made with a holistic blend of added vitamins, minerals, antioxidants, and nutrients such as taurine to support your kitty’s overall health.
+Wholesome kitty food includes omega fatty acids for healthy skin and coat and DHA to support healthy brain development.
+Made without artificial colors, flavors, or preservatives.</t>
+  </si>
+  <si>
+    <t>Valens Kitten</t>
+  </si>
+  <si>
+    <t>Fresh deboned turkey, fresh salmon, turkey meal, salmon meal, turkey liver, peas, sweet potatoes, eggs, Chicken Vita Cube, chicken fat (preserved with mixed tocopherols and citric acid), tomato pomace, flaxseed, natural flavour, cod liver, salt, yeast culture, potassium chloride, L-lysine, DL-methionine, choline chloride, dried Saccharomyces cerevisiae fermentation extract, choline chloride, chicory root extract, beet extract, L-tryptophan, kelp meal, sodium bisulfate, taurine, L-carnitine, blueberries, carob, cranberries, ginger root, apples, dried Lactobacillus fermentation extract, yeast extract, elderberries extract, cranberry extract, rosemary extract, chamomile flowers, thyme extract, Yucca Schidigera extract, valerian root, carrots, spinach, pumpkins, dehydrated Lactobacillus acidophilus fermentation product, dehydrated Lactobacillus casei fermentation product, dehydrated Bifidobacterium bifidum thermophilum fermentation product, dehydrated Streptococcus faecium fermentation product, niacinamide, zinc sulphate, ferrous sulphate, zinc proteinate, iron proteinate, vitamin E, calcium pantothenate, thiamine mononitrate, copper sulphate, pyridoxine hydrochloride, riboflavin, vitamin A, menadione sodium bisulfate complex (source of vitamin K activity), manganous oxide, vitamin D3, manganese proteinate, calcium iodate, folic acid, sodium selenite, biotin, vitamin B12, green tea extract, turmeric root, fennel, paprika, cayenne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valens Kitten's most plentiful ingredient listed is fresh deboned turkey, which is considered a quality protein source. It also contains fresh salmon, turkey meal, salmon meal and turkey liver as additional quality protein sources.
+Additionally, it's worth noting that this product does not list either by-products nor bulk-adding fillers within its top ingredients. By-products are considered inferior, lesser quality ingredients. Common fillers typically used to add bulk to the product are not required in your cat's diet. Together, their combined absence may be indicative of a higher quality product.
+Allergen alert: This product contains fresh salmon, salmon meal, cod liver and eggs which may be problematic for cats who suffer from seafood or eggs food allergies.
+</t>
+  </si>
+  <si>
+    <t>ACANA Kittens First Feast Chicken &amp; Fish Dry Cat Food, 4-lb bag</t>
+  </si>
+  <si>
+    <t>Deboned Chicken, Chicken Meal, Herring Meal, Oatmeal, Whole Peas, Chicken Fat, Whole Green Lentils, Turkey Meal, Whole Chickpeas, Whole Herring, Eggs, Pollock Oil, Natural Chicken Flavor, Lentil Fiber, Deboned Quail, Chicken Cartilage, Chicken Liver, Chicken Heart, Whole Cranberries, Dried Kelp, Choline Chloride, Zinc Proteinate, Mixed Tocopherols (Preservative), Vitamin E Supplement, Taurine, Vitamin D3 Supplement, Vitamin A Acetate, L-Carnitine, Dl-Methionine, Copper Proteinate, Niacin, Thiamine Mononitrate, Riboflavin, Calcium Pantothenate, Pyridoxine Hydrochloride, Folic Acid, Vitamin B12 Supplement, Biotin, Ascorbic Acid (Vitamin C), Citric Acid (Preservative), Rosemary Extract, Dried Lactobacillus Acidophilus Fermentation Product, Dried Bifidobacterium Animalis Fermentation Product, Dried Lactobacillus Casei Fermentation Product.</t>
+  </si>
+  <si>
+    <t>This ACANA recipe starts with free-run chicken and whole herring; it boasts 70% animal ingredients for the protein-rich taste your cat craves.
+Contains no grains, artificial flavors, colors, or preservatives.
+A blend of probiotics and fiber provides digestive health support.
+EPA and DHA help maintain your cat’s eye and heart health.
+Made in the USA using quality ingredients from around the world.</t>
+  </si>
+  <si>
+    <t>ZiwiPeak Air-Dried Venison Recipe</t>
+  </si>
+  <si>
+    <t>Venison, Venison Tripe, Venison Heart, Venison Lung, Venison Liver, Venison Kidney, New Zealand Green Mussel, Venison Bone, Lecithin, Inulin (from Chicory Root), Dried Apple Pomace, Venison Cartilage, Minerals (Dipotassium Phosphate, Magnesium Sulfate, Zinc Amino Acid Complex, Iron Amino Acid Complex, Copper Amino Acid Complex, Manganese Amino Acid Complex, Sodium Selenite), Dried Organic Kelp, Salt, DL-Methionine, Preservative (Citric Acid, Mixed Tocopherols), Vitamins (Choline Chloride, Thiamine Mononitrate, Pyridoxine Hydrochloride, Folic Acid, Vitamin D3 Supplement), Taurine.</t>
+  </si>
+  <si>
+    <t>Safely air-dried and ready to serve, this single-protein recipe contains whole-prey ratios of 96% meat, organs, bone and New Zealand green mussels.
+Grain free and nutrient dense, this recipe packs more power than raw food or kibble into a smaller serving size. Plus, it's made without added carbs or fillers!
+Naturally promotes mobility, vitality and overall well-being with 10% superfood inclusions of cold-washed green tripe, New Zealand green mussels, and organic kelp.
+Serve as a complete meal for peak nutrition or as a tasty topper to furry friends of all ages and breed types.
+All free-range meats and wild-caught fish are ethically sourced without added hormones, antiobiotics or growth promotants.</t>
+  </si>
+  <si>
+    <t>Dr. Elsey's cleanprotein Pork Cat Kibble 2 lb. Bag</t>
+  </si>
+  <si>
+    <t>Chicken, Hydrolyzed Pork, Pork Plasma, Gelatin, Chicken Fat (Preserved with Mixed Tocopherols), Ground Flaxseed, Natural Flavor, Calcium Carbonate, Salmon Oil, Potassium Chloride, Choline Chloride, Fructooligosaccharides, Vitamins (Niacin, Vitamin A Supplement, Thiamine Mononitrate, d-Calcium Pantothenate, Folic Acid, Pyridoxine Hydrochloride, Riboflavin, Vitamin D Supplement, Biotin, Vitamin B12), Minerals (Zinc Proteinate, Zinc Sulfate, Iron Proteinate, Ferrous Sulfate, Copper Proteinate, Copper Sulfate, Manganese Proteinate, Manganese Sulfate, CalciumIodate, Sodium Selenite), Taurine, Magnesium Oxide, Mixed Tocopherols (Preservative), Salt, Vitamin E Supplement, Rosemary Extract.</t>
+  </si>
+  <si>
+    <t>Fundamentals – In Extremis Apparel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken Meal, Brown Rice, Organic Chicken, Chicken Fat, Natural Flavor, Calcium Carbonate, Taurine, Calcium Propionate (a preservative), Choline Chloride, Citric Acid (a preservative), Yeast Extract, Mixed Tocopherols, Rosemary Extract, Chicory Root, Yeast Culture, Minerals (Potassium Chloride, Zinc Proteinate, Zinc Sulfate, Ferrous Sulfate, Iron Proteinate, Copper Sulfate, Copper Proteinate, Manganese Sulfate, Manganese Proteinate, Sodium Selenite, Calcium Iodate), Vitamins (Ascorbic Acid [source of Vitamin C], Vitamin E Supplement, Niacin Supplement, Calcium Pantothenate, Vitamin A Supplement, Thiamine Mononitrate, Pyridoxine Hydrochloride, Riboflavin Supplement, Vitamin D3 Supplement, Biotin, Vitamin B12 Supplement, Folic Acid), Dried Bacillus licheniformis Fermentation Product, Dried Aspergillus oryzae Fermentation Product, Dried Aspergillus niger Fermentation Product, Dried Enterococcus faecium Fermentation Product, Dried Lactobacillus casei Fermentation Product, Dried Lactobacillus acidophilus Fermentation Product, Dried Bacillus subtilis Fermentation Product, Dried Lactobacillus plantarum Fermentation Product, Dried Lactobacillus lactis Fermentation Product.
+</t>
+  </si>
+  <si>
+    <t>High Protein, Limited Ingredients, And Wysong Micronutrients… The Fundamentals
+Genetically Appropriate For Dogs And Cats. High Meat And Fat Content -- 40% Protein, 15% Fat. Low Glycemic Index
+Chicken And Brown Rice Based (With Organic Chicken As A Primary Ingredient), And A Host Of Beneficial Micronutrients
+Extremely Palatable. Contains Prebiotics, Probiotics, Enzymes, Nutraceuticals, Vitamins And Minerals. Formulated For Dogs And Cats Of All Sizes, Life Stages, And Breeds
+Wysong Has Been A Leader In Pet Nutrition Since 1979</t>
+  </si>
+  <si>
+    <t>BIXBI Rawbble Freeze Dried Dog Food, Duck Recipe, 4.5 oz - 95% Meat and Organs, No Fillers - Pantry-Friendly Raw Dog Food for Meal, Treat or Food Topper - USA Made in Small Batches</t>
+  </si>
+  <si>
+    <t>Duck with Ground Bone, Duck Liver, Dried Pumpkin, Salt, Vitamins (niacin supplement, vitamin E supplement, vitamin A supplement, thiamine mononitrate, d-calcium pantothenate, pyridoxine hydrochloride, vitamin D3 supplement, riboflavin supplement, vitamin B12 supplement, folic acid, biotin), Salmon Oil, Choline Chloride, Minerals (zinc proteinate, iron proteinate, copper proteinate, manganese proteinate, sodium selenite, calcium iodate), Taurine, Mixed Tocopherols (a preservative), Rosemary Extract</t>
+  </si>
+  <si>
+    <t>Delicious and nutritious, BIXBI Rawbble Freeze Dried Dog Food combines the whole-animal nutrients of raw dog food with the convenience of dry dog food kibble. Duck recipe Rawbble is 95% meat, bones and organs to provide your pup with a healthy source of protein and to help give them healthy teeth and gums too. A great alternative to wet dog food and traditional dry dog food, Rawbble uses freeze-dried technology to lock more naturally sourced essential nutrients into every bite. Rawbble is made with no animal meal, added hormones or antibiotics, no added fillers or flavorings, no artificial preservatives or colors, no rendered by-products and is a grain free dog food and gluten free dog food. Our freeze-dried raw dog food requires no refrigeration and is as convenient and portable as other types of dog kibble—simply store in your dog food storage container and scoop into your dog’s bowl for a nutrition boost that supports health. This raw nutrition is ideal for all dog breeds of all ages. BIXBI Pet guarantees our products for quality and freshness. Made in the USA with USDA inspected and passed, cage-free duck.</t>
+  </si>
+  <si>
+    <t>Farmina Ocean Feline Tuna, Cod &amp; Shrimp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuna, Cod, Herring, Sweet Potatoes, Shrimp, Herring Oil, Fructooligosaccharide, Calcium Carbonate, Potassium Chloride, Vitamin A Supplement, Vitamin D3 Supplement, Vitamin E Supplement, Menadione Sodium Bisulfite Complex, Choline Chloride, Zinc Methionine Hydroxy Analogue Chelate, Manganese Methionine Hydroxy Analogue Chelate, Ferrous Glycine Complex, Copper Methionine Hydroxy Analogue Chelate, Dl-Methionine, Taurine, L-Carnitine.
+</t>
+  </si>
+  <si>
+    <t>Free from stabilizers and emulsifiers like gums or guar.
+Gently steamed to help protect heat-sensitive nutrients.
+Comes in BPA-free cans.
+Added broth or water helps your kitty get the daily moisture they need to thrive.
+Complete, balanced diet for adult cats features seafood-based proteins and contains no chicken and grains.</t>
+  </si>
+  <si>
+    <t>Wellness CORE Natural Grain-Free Turkey &amp; Chicken Liver Pate Canned Kitten Food, 5.5-oz, case of 24</t>
+  </si>
+  <si>
+    <t>Turkey, Chicken Liver, Turkey Broth, Chicken, Herring, Chicken Hearts, Natural Flavor, Fish Oil (Preserved With Mixed Tocopherols), Ground Flaxseed, Dried Chicory Root, Tricalcium Phosphate, Guar Gum, Potassium Chloride, Taurine, Cranberries, Sunflower Oil, Choline Chloride, Dried Kelp, Yucca Schidigera Extract, Cassia Gum, Xanthan Gum, Salt, Magnesium Sulfate, Vitamin E Supplement, Zinc Proteinate, Iron Proteinate, Thiamine Mononitrate, Copper Proteinate, Manganese Proteinate, Sodium Selenite, Niacin Supplement, d-Calcium Pantothenate, Pyridoxine Hydrochloride, Riboflavin Supplement, Vitamin A Supplement, Biotin, Potassium Iodide, Vitamin D3 Supplement, Vitamin B12 Supplement, Folic Acid.</t>
+  </si>
+  <si>
+    <t>Made with carefully selected ingredients for optimum health benefits.
+Protein-focused diet is perfect for growing kittens who need the extra energy.
+High-levels of DHA support healthy brain and eye development.
+Grain-free recipe provides a complete and balanced everyday diet for your kitten.
+Developed with only premium ingredients—no carrageenan, artificial colors, flavors or byproducts.</t>
+  </si>
+  <si>
+    <t>Farmina, N&amp;D Pumpkin Venison &amp; Pumpkin Canned Cat Food, 2.4608 Ounce</t>
+  </si>
+  <si>
+    <t>Currently unavailable.</t>
+  </si>
+  <si>
+    <t>Dr. Elsey's cleanprotein Rabbit &amp; Turkey Recipe Wet Cat Food, 2.75-oz can, case of 24</t>
+  </si>
+  <si>
+    <t>Rabbit, Turkey, Turkey Broth, Turkey Liver, Dried Egg Product, Agar-Agar, Natural Flavor, Calcium Sulfate, New Zealand Green Mussel, Salmon Oil, Salt, Dried Barley Grass, Potassium Chloride, Taurine, Magnesium Oxide, Sodium Tripolyphosphate, Choline Chloride, Betaine Anhydrous, Zinc Proteinate, Iron Proteinate, Niacin, Vitamin E Supplement, Thiamine Mononitrate, Copper Proteinate, Manganese Proteinate, Sodium Selenite, Calcium Pantothenate, Vitamin A Supplement, Riboflavin, Pyridoxine Hydrochloride, Biotin, Vitamin B12 Supplement, Calcium Iodate, Vitamin D3 Supplement, Folic Acid.</t>
+  </si>
+  <si>
+    <t>Complete and balanced nutrition for all cats from kitten to adult.
+Rabbit and turkey are the first 2 ingredients.
+Grain-free, low-carb formula helps your cat maintain a healthy weight.
+Animal-based protein helps to satisfy your cat’s hunger.
+Oxalate-free formula helps to reduce your cat’s risk of urinary tract stones.</t>
   </si>
 </sst>
 </file>
@@ -658,7 +816,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -679,6 +837,16 @@
       <sz val="17.0"/>
       <color rgb="FFBC2848"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="'JetBrains Mono'"/>
     </font>
   </fonts>
   <fills count="3">
@@ -701,14 +869,11 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
@@ -716,6 +881,15 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +1128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -965,7 +1139,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" hidden="1">
+    <row r="3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,7 +1150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" hidden="1">
+    <row r="4">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -987,10 +1161,10 @@
         <v>13</v>
       </c>
       <c r="D4" s="2">
-        <v>46.58</v>
-      </c>
-    </row>
-    <row r="5" hidden="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -998,575 +1172,575 @@
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="6" hidden="1">
+        <v>62.99</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" s="4">
-        <v>62.99</v>
-      </c>
-    </row>
-    <row r="7" hidden="1">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" hidden="1">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="1">
-        <v>24.99</v>
-      </c>
-    </row>
-    <row r="9" hidden="1">
+    </row>
+    <row r="9">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" hidden="1">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="2">
-        <v>35.74</v>
-      </c>
-    </row>
-    <row r="11" hidden="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" hidden="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" hidden="1">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1">
+        <v>37.67</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D13" s="1">
-        <v>37.67</v>
-      </c>
-    </row>
-    <row r="14" hidden="1">
+        <v>27.81</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="1">
-        <v>27.81</v>
-      </c>
-    </row>
-    <row r="15" hidden="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" hidden="1">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1">
+        <v>17.86</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1">
-        <v>17.86</v>
-      </c>
-    </row>
-    <row r="17" hidden="1">
+        <v>42.09</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="1">
-        <v>42.09</v>
-      </c>
-    </row>
-    <row r="18" hidden="1">
+        <v>36.39</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1">
-        <v>36.39</v>
-      </c>
-    </row>
-    <row r="19" hidden="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" hidden="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" hidden="1">
+        <v>61</v>
+      </c>
+      <c r="D20" s="1">
+        <v>21.44</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1">
-        <v>21.44</v>
-      </c>
-    </row>
-    <row r="22" hidden="1">
+        <v>18.99</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1">
-        <v>18.99</v>
-      </c>
-    </row>
-    <row r="23" hidden="1">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="1">
-        <v>11.43</v>
-      </c>
-    </row>
-    <row r="24" hidden="1">
+        <v>30.54</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1">
-        <v>30.54</v>
-      </c>
-    </row>
-    <row r="25" hidden="1">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1">
-        <v>14.29</v>
-      </c>
-    </row>
-    <row r="26" hidden="1">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="1">
-        <v>18.41</v>
-      </c>
-    </row>
-    <row r="27" hidden="1">
+        <v>23.26</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D27" s="1">
-        <v>23.26</v>
-      </c>
-    </row>
-    <row r="28" hidden="1">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D28" s="1">
-        <v>13.22</v>
-      </c>
-    </row>
-    <row r="29" hidden="1">
+        <v>17.08</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="1">
-        <v>17.08</v>
-      </c>
-    </row>
-    <row r="30" hidden="1">
+        <v>34.16</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1">
-        <v>34.16</v>
-      </c>
-    </row>
-    <row r="31" hidden="1">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1">
-        <v>11.04</v>
-      </c>
-    </row>
-    <row r="32" hidden="1">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="33" hidden="1">
+        <v>14.74</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="1">
-        <v>14.74</v>
-      </c>
-    </row>
-    <row r="34" hidden="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" hidden="1">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1">
+        <v>66.16</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1">
-        <v>66.16</v>
-      </c>
-    </row>
-    <row r="36" hidden="1">
+        <v>70.99</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1">
-        <v>70.99</v>
-      </c>
-    </row>
-    <row r="37" hidden="1">
+        <v>27.29</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="1">
-        <v>27.29</v>
-      </c>
-    </row>
-    <row r="38" hidden="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" hidden="1">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1">
+        <v>51.84</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1">
-        <v>51.84</v>
-      </c>
-    </row>
-    <row r="40" hidden="1">
+        <v>42.16</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1">
-        <v>42.16</v>
+        <v>41.67</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="1">
+        <v>15.92</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="D41" s="1">
-        <v>41.67</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D42" s="1">
-        <v>15.92</v>
+        <v>15.09</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>123</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D43" s="1">
-        <v>15.09</v>
+        <v>92.68</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" s="1">
-        <v>92.68</v>
+        <v>69.99</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="1">
-        <v>69.99</v>
+        <v>22.99</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>130</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D46" s="1">
-        <v>22.99</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="47">
@@ -1574,47 +1748,284 @@
         <v>140</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="D47" s="1">
+        <v>19.09</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D48" s="1">
-        <v>19.09</v>
+        <v>22.99</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="1">
+        <v>17.08</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="1">
+        <v>19.49</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D49" s="1">
-        <v>22.99</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>123</v>
+      <c r="C53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="1">
+        <v>24.1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="1">
+        <v>17.08</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="1">
+        <v>14.29</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="1">
+        <v>46.99</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="1">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="1">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61" s="1">
+        <v>40.48</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="1">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="1">
+        <v>59.92</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D65" s="1">
+        <v>26.64</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$A$997"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>